--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaguilar\Downloads\DATA WEB COORDENADAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaguilar\Downloads\DATA WEB COORDENADAS_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A5F346-8D2F-4543-BD8E-763006192010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7092F3-2D6A-4BE6-B608-B62AA473055F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>REFERENCIA</t>
   </si>
@@ -77,6 +77,9 @@
     <t>Contrato</t>
   </si>
   <si>
+    <t>Referencia</t>
+  </si>
+  <si>
     <t>Longuitud</t>
   </si>
   <si>
@@ -93,9 +96,6 @@
   </si>
   <si>
     <t>DS118135</t>
-  </si>
-  <si>
-    <t>Referencia</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -640,12 +642,13 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -653,7 +656,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -662,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -670,7 +673,10 @@
         <v>504511201</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="D2">
         <v>13.4958347</v>
@@ -684,7 +690,10 @@
         <v>209337001</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
       <c r="D3">
         <v>13.974621666667</v>
@@ -698,7 +707,10 @@
         <v>510085601</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
       <c r="D4">
         <v>13.826896666667</v>
@@ -712,7 +724,10 @@
         <v>213410601</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5">
         <v>13.503866666666999</v>
@@ -726,7 +741,10 @@
         <v>505832501</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
       <c r="D6">
         <v>13.792400000000001</v>
@@ -740,7 +758,10 @@
         <v>101878702</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
       <c r="D7">
         <v>13.689475</v>
@@ -754,7 +775,10 @@
         <v>506894801</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
       </c>
       <c r="D8">
         <v>13.857641666667</v>
@@ -768,7 +792,10 @@
         <v>208157601</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
       </c>
       <c r="D9">
         <v>13.488861666667001</v>
